--- a/mockup_data/mockup_data.xlsx
+++ b/mockup_data/mockup_data.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pawarit\Desktop\GitHub\Foster-Ulcer-AI\Foster-Ulcer-AI\mockup_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49199F4-E724-4087-B113-73EE43C8CA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Patients" sheetId="1" r:id="rId5"/>
-    <sheet state="visible" name="Patients_Detail" sheetId="2" r:id="rId6"/>
-    <sheet state="visible" name="Wound_cases" sheetId="3" r:id="rId7"/>
-    <sheet state="visible" name="Wound_cases_Detail" sheetId="4" r:id="rId8"/>
-    <sheet state="visible" name="AI_analysis" sheetId="5" r:id="rId9"/>
-    <sheet state="visible" name="ai_analysis_Detail" sheetId="6" r:id="rId10"/>
+    <sheet name="Patients" sheetId="1" r:id="rId1"/>
+    <sheet name="Patients_Detail" sheetId="2" r:id="rId2"/>
+    <sheet name="Wound_cases" sheetId="3" r:id="rId3"/>
+    <sheet name="Wound_cases_Detail" sheetId="4" r:id="rId4"/>
+    <sheet name="AI_analysis" sheetId="5" r:id="rId5"/>
+    <sheet name="ai_analysis_Detail" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="358">
   <si>
     <t>patient_id</t>
   </si>
@@ -1095,29 +1104,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans Text&quot;"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans Text&quot;"/>
     </font>
@@ -1127,72 +1139,47 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1382,20 +1369,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1421,19 +1413,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1447,31 +1442,34 @@
         <v>15</v>
       </c>
       <c r="E2" s="4">
-        <v>20221.0</v>
+        <v>20221</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="3">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="H2" s="3">
-        <v>68.0</v>
-      </c>
-      <c r="I2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="5">
+      <c r="M2" s="5">
         <v>46042.385416666664</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1485,31 +1483,34 @@
         <v>23</v>
       </c>
       <c r="E3" s="4">
-        <v>22970.0</v>
+        <v>22970</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="3">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="H3" s="3">
-        <v>72.0</v>
-      </c>
-      <c r="I3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <v>46042.4375</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1523,31 +1524,34 @@
         <v>29</v>
       </c>
       <c r="E4" s="4">
-        <v>17607.0</v>
+        <v>17607</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="3">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="H4" s="3">
-        <v>54.0</v>
-      </c>
-      <c r="I4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>46043.333333333336</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1561,31 +1565,34 @@
         <v>37</v>
       </c>
       <c r="E5" s="4">
-        <v>26178.0</v>
+        <v>26178</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="3">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="H5" s="3">
-        <v>58.0</v>
-      </c>
-      <c r="I5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>46043.572916666664</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -1599,31 +1606,34 @@
         <v>44</v>
       </c>
       <c r="E6" s="4">
-        <v>21580.0</v>
+        <v>21580</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="3">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="H6" s="3">
-        <v>80.0</v>
-      </c>
-      <c r="I6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="5">
-        <v>46044.47222222222</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="M6" s="5">
+        <v>46044.472222222219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -1637,31 +1647,34 @@
         <v>50</v>
       </c>
       <c r="E7" s="4">
-        <v>29416.0</v>
+        <v>29416</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="3">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="H7" s="3">
-        <v>65.0</v>
-      </c>
-      <c r="I7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>46044.631944444445</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -1675,31 +1688,34 @@
         <v>56</v>
       </c>
       <c r="E8" s="4">
-        <v>16781.0</v>
+        <v>16781</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="3">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="H8" s="3">
-        <v>62.0</v>
-      </c>
-      <c r="I8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>46045.375</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>58</v>
       </c>
@@ -1713,31 +1729,34 @@
         <v>61</v>
       </c>
       <c r="E9" s="4">
-        <v>24219.0</v>
+        <v>24219</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="3">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="H9" s="3">
-        <v>59.0</v>
-      </c>
-      <c r="I9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>46045.447916666664</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>63</v>
       </c>
@@ -1751,31 +1770,34 @@
         <v>66</v>
       </c>
       <c r="E10" s="4">
-        <v>27553.0</v>
+        <v>27553</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="3">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="H10" s="3">
-        <v>85.0</v>
-      </c>
-      <c r="I10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>46046.583333333336</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
@@ -1789,46 +1811,50 @@
         <v>71</v>
       </c>
       <c r="E11" s="4">
-        <v>19272.0</v>
+        <v>19272</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="3">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="H11" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="I11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="5">
         <v>46046.6875</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +1862,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1844,7 +1870,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1852,7 +1878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1860,7 +1886,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1868,7 +1894,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1876,7 +1902,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1884,7 +1910,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1892,7 +1918,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:3">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1900,7 +1926,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:3">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1908,7 +1934,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:3">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1916,7 +1942,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="2:3">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1925,21 +1951,24 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -2046,7 +2075,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
@@ -2075,13 +2104,13 @@
         <v>120</v>
       </c>
       <c r="N2" s="1">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="O2" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="P2" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>121</v>
@@ -2105,10 +2134,10 @@
         <v>125</v>
       </c>
       <c r="X2" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="Y2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>126</v>
@@ -2126,7 +2155,7 @@
         <v>130</v>
       </c>
       <c r="AE2" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AF2" s="1" t="b">
         <v>0</v>
@@ -2141,7 +2170,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
         <v>133</v>
       </c>
@@ -2185,10 +2214,10 @@
         <v>36.5</v>
       </c>
       <c r="O3" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="P3" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>145</v>
@@ -2212,10 +2241,10 @@
         <v>149</v>
       </c>
       <c r="X3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>150</v>
@@ -2233,7 +2262,7 @@
         <v>152</v>
       </c>
       <c r="AE3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AF3" s="1" t="b">
         <v>0</v>
@@ -2248,7 +2277,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
         <v>156</v>
       </c>
@@ -2283,13 +2312,13 @@
         <v>163</v>
       </c>
       <c r="N4" s="1">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="O4" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="P4" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>164</v>
@@ -2313,10 +2342,10 @@
         <v>149</v>
       </c>
       <c r="X4" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="Y4" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>167</v>
@@ -2334,7 +2363,7 @@
         <v>152</v>
       </c>
       <c r="AE4" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AF4" s="1" t="b">
         <v>0</v>
@@ -2349,7 +2378,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
         <v>172</v>
       </c>
@@ -2381,7 +2410,7 @@
         <v>130.5</v>
       </c>
       <c r="P5" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>178</v>
@@ -2396,19 +2425,19 @@
         <v>180</v>
       </c>
       <c r="U5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>181</v>
       </c>
       <c r="X5" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="Y5" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>182</v>
@@ -2426,7 +2455,7 @@
         <v>185</v>
       </c>
       <c r="AE5" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AF5" s="1" t="b">
         <v>1</v>
@@ -2441,7 +2470,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
         <v>188</v>
       </c>
@@ -2476,13 +2505,13 @@
         <v>195</v>
       </c>
       <c r="N6" s="1">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="O6" s="1">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="P6" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>196</v>
@@ -2497,7 +2526,7 @@
         <v>199</v>
       </c>
       <c r="U6" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="V6" s="1">
         <v>0.5</v>
@@ -2506,10 +2535,10 @@
         <v>200</v>
       </c>
       <c r="X6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>201</v>
@@ -2527,7 +2556,7 @@
         <v>152</v>
       </c>
       <c r="AE6" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AF6" s="1" t="b">
         <v>0</v>
@@ -2542,7 +2571,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
         <v>206</v>
       </c>
@@ -2571,13 +2600,13 @@
         <v>210</v>
       </c>
       <c r="N7" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="O7" s="1">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="P7" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>211</v>
@@ -2601,10 +2630,10 @@
         <v>149</v>
       </c>
       <c r="X7" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>150</v>
@@ -2622,7 +2651,7 @@
         <v>152</v>
       </c>
       <c r="AE7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AF7" s="1" t="b">
         <v>0</v>
@@ -2637,7 +2666,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
         <v>215</v>
       </c>
@@ -2673,10 +2702,10 @@
         <v>37.5</v>
       </c>
       <c r="O8" s="1">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="P8" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>121</v>
@@ -2691,19 +2720,19 @@
         <v>124</v>
       </c>
       <c r="U8" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V8" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>125</v>
       </c>
       <c r="X8" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="Y8" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>126</v>
@@ -2721,7 +2750,7 @@
         <v>128</v>
       </c>
       <c r="AE8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AF8" s="1" t="b">
         <v>1</v>
@@ -2736,7 +2765,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
         <v>226</v>
       </c>
@@ -2783,7 +2812,7 @@
         <v>115.5</v>
       </c>
       <c r="P9" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>145</v>
@@ -2798,19 +2827,19 @@
         <v>180</v>
       </c>
       <c r="U9" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V9" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>200</v>
       </c>
       <c r="X9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>201</v>
@@ -2828,7 +2857,7 @@
         <v>152</v>
       </c>
       <c r="AE9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="1" t="b">
         <v>0</v>
@@ -2843,7 +2872,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:35">
       <c r="A10" s="1" t="s">
         <v>237</v>
       </c>
@@ -2872,10 +2901,10 @@
         <v>37.9</v>
       </c>
       <c r="O10" s="1">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="P10" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>164</v>
@@ -2893,16 +2922,16 @@
         <v>8.5</v>
       </c>
       <c r="V10" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>149</v>
       </c>
       <c r="X10" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>124</v>
@@ -2920,7 +2949,7 @@
         <v>128</v>
       </c>
       <c r="AE10" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AF10" s="1" t="b">
         <v>0</v>
@@ -2935,7 +2964,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
         <v>243</v>
       </c>
@@ -2964,13 +2993,13 @@
         <v>247</v>
       </c>
       <c r="N11" s="1">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="O11" s="1">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="P11" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>248</v>
@@ -2985,7 +3014,7 @@
         <v>124</v>
       </c>
       <c r="U11" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="V11" s="1">
         <v>6.5</v>
@@ -2994,10 +3023,10 @@
         <v>149</v>
       </c>
       <c r="X11" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>167</v>
@@ -3015,7 +3044,7 @@
         <v>152</v>
       </c>
       <c r="AE11" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AF11" s="1" t="b">
         <v>0</v>
@@ -3030,7 +3059,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:35">
       <c r="A12" s="1" t="s">
         <v>251</v>
       </c>
@@ -3060,10 +3089,10 @@
         <v>37.1</v>
       </c>
       <c r="O12" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="P12" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>211</v>
@@ -3078,19 +3107,19 @@
         <v>148</v>
       </c>
       <c r="U12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>149</v>
       </c>
       <c r="X12" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>150</v>
@@ -3108,7 +3137,7 @@
         <v>152</v>
       </c>
       <c r="AE12" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AF12" s="1" t="b">
         <v>0</v>
@@ -3123,7 +3152,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
         <v>258</v>
       </c>
@@ -3158,13 +3187,13 @@
         <v>263</v>
       </c>
       <c r="N13" s="1">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="O13" s="1">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="P13" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>178</v>
@@ -3182,16 +3211,16 @@
         <v>3.5</v>
       </c>
       <c r="V13" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>125</v>
       </c>
       <c r="X13" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="Y13" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>126</v>
@@ -3209,7 +3238,7 @@
         <v>130</v>
       </c>
       <c r="AE13" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AF13" s="1" t="b">
         <v>0</v>
@@ -3224,7 +3253,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:35">
       <c r="A14" s="1" t="s">
         <v>265</v>
       </c>
@@ -3253,10 +3282,10 @@
         <v>38.1</v>
       </c>
       <c r="O14" s="1">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="P14" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>121</v>
@@ -3274,16 +3303,16 @@
         <v>7.2</v>
       </c>
       <c r="V14" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>270</v>
       </c>
       <c r="X14" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="Y14" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>126</v>
@@ -3301,7 +3330,7 @@
         <v>272</v>
       </c>
       <c r="AE14" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AF14" s="1" t="b">
         <v>1</v>
@@ -3316,7 +3345,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:35">
       <c r="A15" s="1" t="s">
         <v>274</v>
       </c>
@@ -3360,10 +3389,10 @@
         <v>36.4</v>
       </c>
       <c r="O15" s="1">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="P15" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>196</v>
@@ -3378,7 +3407,7 @@
         <v>199</v>
       </c>
       <c r="U15" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="V15" s="1">
         <v>0.2</v>
@@ -3387,10 +3416,10 @@
         <v>125</v>
       </c>
       <c r="X15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>201</v>
@@ -3408,7 +3437,7 @@
         <v>152</v>
       </c>
       <c r="AE15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="1" t="b">
         <v>0</v>
@@ -3423,7 +3452,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:35">
       <c r="A16" s="1" t="s">
         <v>285</v>
       </c>
@@ -3455,10 +3484,10 @@
         <v>37.6</v>
       </c>
       <c r="O16" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="P16" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>178</v>
@@ -3476,16 +3505,16 @@
         <v>5.5</v>
       </c>
       <c r="V16" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>125</v>
       </c>
       <c r="X16" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="Y16" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>182</v>
@@ -3503,7 +3532,7 @@
         <v>128</v>
       </c>
       <c r="AE16" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AF16" s="1" t="b">
         <v>0</v>
@@ -3518,7 +3547,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
         <v>291</v>
       </c>
@@ -3556,10 +3585,10 @@
         <v>36.9</v>
       </c>
       <c r="O17" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="P17" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>211</v>
@@ -3583,10 +3612,10 @@
         <v>149</v>
       </c>
       <c r="X17" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>150</v>
@@ -3604,7 +3633,7 @@
         <v>152</v>
       </c>
       <c r="AE17" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AF17" s="1" t="b">
         <v>0</v>
@@ -3619,7 +3648,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
         <v>300</v>
       </c>
@@ -3645,13 +3674,13 @@
         <v>303</v>
       </c>
       <c r="N18" s="1">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="O18" s="1">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="P18" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>164</v>
@@ -3675,10 +3704,10 @@
         <v>149</v>
       </c>
       <c r="X18" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>201</v>
@@ -3696,7 +3725,7 @@
         <v>152</v>
       </c>
       <c r="AE18" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AF18" s="1" t="b">
         <v>0</v>
@@ -3711,7 +3740,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
         <v>306</v>
       </c>
@@ -3746,13 +3775,13 @@
         <v>312</v>
       </c>
       <c r="N19" s="1">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="O19" s="1">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="P19" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>248</v>
@@ -3767,19 +3796,19 @@
         <v>124</v>
       </c>
       <c r="U19" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V19" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>149</v>
       </c>
       <c r="X19" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>167</v>
@@ -3797,7 +3826,7 @@
         <v>152</v>
       </c>
       <c r="AE19" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AF19" s="1" t="b">
         <v>0</v>
@@ -3812,7 +3841,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
         <v>314</v>
       </c>
@@ -3844,10 +3873,10 @@
         <v>37.4</v>
       </c>
       <c r="O20" s="1">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="P20" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>121</v>
@@ -3862,19 +3891,19 @@
         <v>124</v>
       </c>
       <c r="U20" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="V20" s="1">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>181</v>
       </c>
       <c r="X20" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="Y20" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>126</v>
@@ -3892,7 +3921,7 @@
         <v>185</v>
       </c>
       <c r="AE20" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AF20" s="1" t="b">
         <v>1</v>
@@ -3907,7 +3936,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
         <v>321</v>
       </c>
@@ -3942,13 +3971,13 @@
         <v>325</v>
       </c>
       <c r="N21" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="O21" s="1">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="P21" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>196</v>
@@ -3963,7 +3992,7 @@
         <v>213</v>
       </c>
       <c r="U21" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V21" s="1">
         <v>3.2</v>
@@ -3972,10 +4001,10 @@
         <v>125</v>
       </c>
       <c r="X21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="Y21" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>124</v>
@@ -3993,7 +4022,7 @@
         <v>130</v>
       </c>
       <c r="AE21" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AF21" s="1" t="b">
         <v>0</v>
@@ -4009,21 +4038,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>80</v>
       </c>
@@ -4031,7 +4061,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,7 +4069,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4047,7 +4077,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
         <v>82</v>
       </c>
@@ -4055,7 +4085,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:3">
       <c r="B6" s="1" t="s">
         <v>83</v>
       </c>
@@ -4063,7 +4093,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
         <v>84</v>
       </c>
@@ -4071,7 +4101,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:3">
       <c r="B8" s="1" t="s">
         <v>85</v>
       </c>
@@ -4079,7 +4109,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:3">
       <c r="B9" s="1" t="s">
         <v>86</v>
       </c>
@@ -4087,7 +4117,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:3">
       <c r="B10" s="1" t="s">
         <v>87</v>
       </c>
@@ -4095,7 +4125,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:3">
       <c r="B11" s="1" t="s">
         <v>88</v>
       </c>
@@ -4103,7 +4133,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:3">
       <c r="B12" s="1" t="s">
         <v>89</v>
       </c>
@@ -4111,7 +4141,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="2:3">
       <c r="B13" s="1" t="s">
         <v>90</v>
       </c>
@@ -4119,7 +4149,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="2:3">
       <c r="B14" s="1" t="s">
         <v>91</v>
       </c>
@@ -4127,7 +4157,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="2:3">
       <c r="B15" s="1" t="s">
         <v>92</v>
       </c>
@@ -4135,7 +4165,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="2:3">
       <c r="B16" s="1" t="s">
         <v>93</v>
       </c>
@@ -4143,7 +4173,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>94</v>
       </c>
@@ -4151,7 +4181,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:3">
       <c r="B18" s="1" t="s">
         <v>95</v>
       </c>
@@ -4159,7 +4189,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="2:3">
       <c r="B19" s="1" t="s">
         <v>96</v>
       </c>
@@ -4167,7 +4197,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="2:3">
       <c r="B20" s="1" t="s">
         <v>97</v>
       </c>
@@ -4175,7 +4205,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="2:3">
       <c r="B21" s="1" t="s">
         <v>98</v>
       </c>
@@ -4183,7 +4213,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="2:3">
       <c r="B22" s="1" t="s">
         <v>99</v>
       </c>
@@ -4191,7 +4221,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="2:3">
       <c r="B23" s="1" t="s">
         <v>100</v>
       </c>
@@ -4199,7 +4229,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="2:3">
       <c r="B24" s="1" t="s">
         <v>101</v>
       </c>
@@ -4207,7 +4237,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>102</v>
       </c>
@@ -4215,7 +4245,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>103</v>
       </c>
@@ -4223,7 +4253,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="2:3">
       <c r="B27" s="1" t="s">
         <v>104</v>
       </c>
@@ -4231,7 +4261,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="2:3">
       <c r="B28" s="1" t="s">
         <v>105</v>
       </c>
@@ -4239,7 +4269,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>106</v>
       </c>
@@ -4247,7 +4277,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="2:3">
       <c r="B30" s="1" t="s">
         <v>107</v>
       </c>
@@ -4255,7 +4285,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="2:3">
       <c r="B31" s="1" t="s">
         <v>108</v>
       </c>
@@ -4263,7 +4293,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="2:3">
       <c r="B32" s="1" t="s">
         <v>109</v>
       </c>
@@ -4271,7 +4301,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="2:3">
       <c r="B33" s="1" t="s">
         <v>110</v>
       </c>
@@ -4279,7 +4309,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="2:3">
       <c r="B34" s="1" t="s">
         <v>111</v>
       </c>
@@ -4287,7 +4317,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="2:3">
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
@@ -4295,7 +4325,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="2:3">
       <c r="B36" s="1" t="s">
         <v>112</v>
       </c>
@@ -4304,21 +4334,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>344</v>
       </c>
@@ -4357,21 +4388,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>344</v>
       </c>
@@ -4379,7 +4411,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
         <v>345</v>
       </c>
@@ -4387,7 +4419,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
@@ -4395,7 +4427,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
         <v>346</v>
       </c>
@@ -4403,7 +4435,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:3">
       <c r="B6" s="1" t="s">
         <v>347</v>
       </c>
@@ -4411,7 +4443,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
         <v>348</v>
       </c>
@@ -4419,7 +4451,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:3">
       <c r="B8" s="1" t="s">
         <v>349</v>
       </c>
@@ -4427,7 +4459,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:3">
       <c r="B9" s="1" t="s">
         <v>350</v>
       </c>
@@ -4435,7 +4467,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:3">
       <c r="B10" s="1" t="s">
         <v>351</v>
       </c>
@@ -4443,7 +4475,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:3">
       <c r="B11" s="1" t="s">
         <v>352</v>
       </c>
@@ -4451,7 +4483,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:3">
       <c r="B12" s="1" t="s">
         <v>353</v>
       </c>
@@ -4459,7 +4491,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="2:3">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4468,6 +4500,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mockup_data/mockup_data.xlsx
+++ b/mockup_data/mockup_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pawarit\Desktop\GitHub\Foster-Ulcer-AI\Foster-Ulcer-AI\mockup_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49199F4-E724-4087-B113-73EE43C8CA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FD4910-9AF8-46F8-923A-8B9D1486A597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,17 @@
     <sheet name="Wound_cases_Detail" sheetId="4" r:id="rId4"/>
     <sheet name="AI_analysis" sheetId="5" r:id="rId5"/>
     <sheet name="ai_analysis_Detail" sheetId="6" r:id="rId6"/>
+    <sheet name="treatment_plan" sheetId="8" r:id="rId7"/>
+    <sheet name="treatment_plan_detail" sheetId="7" r:id="rId8"/>
+    <sheet name="plan_task" sheetId="10" r:id="rId9"/>
+    <sheet name="plan_task_detail" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="378">
   <si>
     <t>patient_id</t>
   </si>
@@ -1099,6 +1103,66 @@
   </si>
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> varchar (PK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doctor_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> varchar (FK → users.user_email)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> text</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>active_flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> timestamp</t>
+  </si>
+  <si>
+    <t>plan_id</t>
+  </si>
+  <si>
+    <t>plan_text</t>
+  </si>
+  <si>
+    <t>followup_days</t>
+  </si>
+  <si>
+    <t>varchar (FK → users.user_email)</t>
+  </si>
+  <si>
+    <t>varchar (DRAFT/SENT/ONGOING/APPOINTMENT/COMPLETED/DELETED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> varchar (FK → treatment_plans.plan_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ENUM(DRAFT/SENT/ONGOING/DONE/OVERDUE)</t>
+  </si>
+  <si>
+    <t>task_due</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> datetime</t>
+  </si>
+  <si>
+    <t>task_id</t>
+  </si>
+  <si>
+    <t>task_text</t>
+  </si>
+  <si>
+    <t>done_time</t>
+  </si>
+  <si>
+    <t>done_by</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1173,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1133,6 +1197,13 @@
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans Text&quot;"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1154,13 +1225,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1381,8 +1453,8 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1836,6 +1908,77 @@
       </c>
       <c r="M11" s="5">
         <v>46046.6875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF20F4D-9320-405B-A57B-0DB097DD10E2}">
+  <dimension ref="C3:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="3" spans="3:4">
+      <c r="C3" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D9" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -1962,8 +2105,8 @@
   </sheetPr>
   <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="A1:AI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4049,7 +4192,9 @@
   </sheetPr>
   <dimension ref="B2:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -4335,6 +4480,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4345,7 +4491,9 @@
   </sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -4502,4 +4650,191 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0489817E-BDE1-42AB-91FD-E30F83DCCC65}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E01845D-3BF2-4819-8219-E314771B9B1D}">
+  <dimension ref="C3:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="3" spans="3:4">
+      <c r="C3" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8AA9DF-84AD-4C5A-B6B1-F52447F2C2E1}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mockup_data/mockup_data.xlsx
+++ b/mockup_data/mockup_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pawarit\Desktop\GitHub\Foster-Ulcer-AI\Foster-Ulcer-AI\mockup_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FD4910-9AF8-46F8-923A-8B9D1486A597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E58C3D8-D8C0-4332-8AF9-DCA3A0917841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" r:id="rId1"/>
@@ -4192,8 +4192,8 @@
   </sheetPr>
   <dimension ref="B2:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4787,7 +4787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8AA9DF-84AD-4C5A-B6B1-F52447F2C2E1}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
